--- a/data/trans_bre/P1805-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Clase-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,65</t>
+          <t>-0,45; 4,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 3,77</t>
+          <t>-2,42; 3,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 333,38</t>
+          <t>-17,66; 367,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,65; 138,74</t>
+          <t>-40,1; 129,61</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,53</t>
+          <t>-1,84; 2,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,15; 5,37</t>
+          <t>-0,17; 5,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,82; 250,87</t>
+          <t>-72,63; 261,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 233,8</t>
+          <t>-7,42; 214,89</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 9,9</t>
+          <t>0,46; 9,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 5,81</t>
+          <t>-0,32; 5,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 611,17</t>
+          <t>-1,9; 588,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 842,75</t>
+          <t>-21,37; 611,83</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,8</t>
+          <t>1,36; 4,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,01</t>
+          <t>-2,13; 2,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>63,05; 531,0</t>
+          <t>67,39; 596,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,76; 85,94</t>
+          <t>-50,21; 79,03</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,9</t>
+          <t>0,38; 4,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,59</t>
+          <t>-1,07; 2,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 399,1</t>
+          <t>3,57; 409,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 222,01</t>
+          <t>-30,66; 211,14</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,56</t>
+          <t>-1,52; 2,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 1,41</t>
+          <t>-9,38; 1,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,61; 230,8</t>
+          <t>-40,3; 221,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,77; 63,4</t>
+          <t>-78,56; 75,07</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,66</t>
+          <t>1,18; 2,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,8</t>
+          <t>-0,42; 1,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,39; 179,65</t>
+          <t>53,19; 185,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 68,1</t>
+          <t>-10,97; 70,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1805-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1805-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
